--- a/test_scripts/QS004_testscript1.xlsx
+++ b/test_scripts/QS004_testscript1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE4543-46F8-4BC9-8DC6-6A77EE2166B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF3D0E-B494-4CE4-9F75-3E92F7741210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
+    <workbookView xWindow="3624" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>Edge</t>
   </si>
   <si>
-    <t>QS004</t>
+    <t>TS004</t>
   </si>
 </sst>
 </file>
